--- a/Mensajes.xlsx
+++ b/Mensajes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TEC\GitHub\Proyecto-programado-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CB79E5-C99C-4AD9-91A9-A0FF0FC8EFCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98472371-CC9D-4CF3-B203-025049FC0B94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14160" yWindow="3768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t xml:space="preserve">Tipo </t>
   </si>
@@ -188,6 +188,60 @@
   </si>
   <si>
     <t>— ¿Por qué se suicidó el libro de matemáticas?— Porque tenía muchos problemas.</t>
+  </si>
+  <si>
+    <t>If possible, try not to skimp on money when you want to treat yourself. We all deserve a gift from time to time.</t>
+  </si>
+  <si>
+    <t>When you really don't like something, feel free to say so. The worst thing you can do is keep it to yourself.</t>
+  </si>
+  <si>
+    <t>Think of TODAY, because yesterday is left behind, and tomorrow may never come.</t>
+  </si>
+  <si>
+    <t>If you don't understand something, don't be ashamed to ask.</t>
+  </si>
+  <si>
+    <t>If you want to see someone, invite them. The company of loved ones is essential to achieve a happy life.</t>
+  </si>
+  <si>
+    <t>If you want something, ask for it. What do you lose by trying?</t>
+  </si>
+  <si>
+    <t>Try not to argue over nonsense, in the end it is useless.</t>
+  </si>
+  <si>
+    <t>If you want to be understood, try to explain yourself as best you can.</t>
+  </si>
+  <si>
+    <t>If you know that you are to blame for something you have done, acknowledge it and do not look for silly justifications.</t>
+  </si>
+  <si>
+    <t>You must remember that each person has their own truth and many times it will not coincide with yours.</t>
+  </si>
+  <si>
+    <t>Avoid socializing and communicating with fools who might hurt you. They are not worth it.</t>
+  </si>
+  <si>
+    <t>The most important thing you will find in life is love, the rest is vanity. Try not to lose it.</t>
+  </si>
+  <si>
+    <t>Your problems are only in your head. Many times we get too overwhelmed, and we make a world out of a little trouble.</t>
+  </si>
+  <si>
+    <t>The outside world is neither bad nor good, it doesn't care if you exist, as cruel as it may sound.</t>
+  </si>
+  <si>
+    <t>Take advantage and enjoy each event that is planted in front of you every day.</t>
+  </si>
+  <si>
+    <t>Always remember that you will not have another life. Make the most of it</t>
+  </si>
+  <si>
+    <t>Don't be boring, try to give routine activities some fun.</t>
+  </si>
+  <si>
+    <t>"Not all that glitters is gold"</t>
   </si>
 </sst>
 </file>
@@ -522,13 +576,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="4" width="111.88671875" customWidth="1"/>
+    <col min="3" max="4" width="115.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -561,7 +615,9 @@
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
       <c r="E2" s="1">
         <v>5</v>
       </c>
@@ -579,7 +635,9 @@
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
       <c r="E3" s="1">
         <v>5</v>
       </c>
@@ -597,7 +655,9 @@
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" t="s">
+        <v>58</v>
+      </c>
       <c r="E4" s="1">
         <v>5</v>
       </c>
@@ -615,7 +675,9 @@
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" t="s">
+        <v>59</v>
+      </c>
       <c r="E5" s="1">
         <v>5</v>
       </c>
@@ -633,7 +695,9 @@
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" t="s">
+        <v>60</v>
+      </c>
       <c r="E6" s="1">
         <v>5</v>
       </c>
@@ -651,7 +715,9 @@
       <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" t="s">
+        <v>61</v>
+      </c>
       <c r="E7" s="1">
         <v>5</v>
       </c>
@@ -669,7 +735,9 @@
       <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" t="s">
+        <v>62</v>
+      </c>
       <c r="E8" s="1">
         <v>10</v>
       </c>
@@ -687,7 +755,9 @@
       <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" t="s">
+        <v>63</v>
+      </c>
       <c r="E9" s="1">
         <v>10</v>
       </c>
@@ -705,7 +775,9 @@
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" t="s">
+        <v>64</v>
+      </c>
       <c r="E10" s="1">
         <v>10</v>
       </c>
@@ -723,7 +795,9 @@
       <c r="C11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" t="s">
+        <v>65</v>
+      </c>
       <c r="E11" s="1">
         <v>10</v>
       </c>
@@ -741,7 +815,9 @@
       <c r="C12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" t="s">
+        <v>66</v>
+      </c>
       <c r="E12" s="1">
         <v>10</v>
       </c>
@@ -759,7 +835,9 @@
       <c r="C13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" t="s">
+        <v>67</v>
+      </c>
       <c r="E13" s="1">
         <v>10</v>
       </c>
@@ -777,7 +855,9 @@
       <c r="C14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="D14" t="s">
+        <v>68</v>
+      </c>
       <c r="E14" s="1">
         <v>15</v>
       </c>
@@ -795,7 +875,9 @@
       <c r="C15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
       <c r="E15" s="1">
         <v>15</v>
       </c>
@@ -813,7 +895,9 @@
       <c r="C16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" t="s">
+        <v>70</v>
+      </c>
       <c r="E16" s="1">
         <v>15</v>
       </c>
@@ -831,7 +915,9 @@
       <c r="C17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="1"/>
+      <c r="D17" t="s">
+        <v>71</v>
+      </c>
       <c r="E17" s="1">
         <v>15</v>
       </c>
@@ -849,7 +935,9 @@
       <c r="C18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" t="s">
+        <v>72</v>
+      </c>
       <c r="E18" s="1">
         <v>15</v>
       </c>
@@ -867,7 +955,9 @@
       <c r="C19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="1"/>
+      <c r="D19" t="s">
+        <v>73</v>
+      </c>
       <c r="E19" s="1">
         <v>5</v>
       </c>

--- a/Mensajes.xlsx
+++ b/Mensajes.xlsx
@@ -1,260 +1,374 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TEC\GitHub\Proyecto-programado-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98472371-CC9D-4CF3-B203-025049FC0B94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10DD2EFD-0AFE-407B-B03A-54CA44CE96C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14160" yWindow="3768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4032" yWindow="348" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+  <si>
+    <t>“A caballo regalado no se le mira el diente”</t>
+  </si>
+  <si>
+    <t>“A buen entendedor, pocas palabras”</t>
+  </si>
+  <si>
+    <t>"Love with love is paid"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“La fe mueve montañas” </t>
+  </si>
+  <si>
+    <t>“Hoy por ti, mañana por mí”</t>
+  </si>
+  <si>
+    <t>“Amor con amor se paga”</t>
+  </si>
+  <si>
+    <t>"Works are loves, and not good reasons"</t>
+  </si>
+  <si>
+    <t>“Obras son amores, y no buenas razones”</t>
+  </si>
+  <si>
+    <t>"Whoever has a mouth makes mistakes"</t>
+  </si>
+  <si>
+    <t>“El que tiene boca, se equivoca”</t>
+  </si>
+  <si>
+    <t>"A nail pulls out another nail"</t>
+  </si>
+  <si>
+    <t>“Un clavo saca otro clavo”</t>
+  </si>
+  <si>
+    <t>"Cheap is expensive"</t>
+  </si>
+  <si>
+    <t>“Lo barato sale caro”</t>
+  </si>
+  <si>
+    <t>"New broom sweeps well"</t>
+  </si>
+  <si>
+    <t>“Escoba nueva barre bien ”</t>
+  </si>
+  <si>
+    <t>"A good payer, clothes do not hurt"</t>
+  </si>
+  <si>
+    <t>“A buen pagador, no le duelen prendas”</t>
+  </si>
+  <si>
+    <t>"Each stick holds its candle"</t>
+  </si>
+  <si>
+    <t>“Cada palo aguante su vela”</t>
+  </si>
+  <si>
+    <t>"Time heals all"</t>
+  </si>
+  <si>
+    <t>“El tiempo lo cura todo”</t>
+  </si>
+  <si>
+    <t>"The third is due"</t>
+  </si>
+  <si>
+    <t>“A la tercera va a vencida”</t>
+  </si>
+  <si>
+    <t>"A dead king, put king"</t>
+  </si>
+  <si>
+    <t>“A rey muerto, rey puesto”</t>
+  </si>
+  <si>
+    <t>"Easy Come Easy Go"</t>
+  </si>
+  <si>
+    <t>“Lo que fácil viene, fácil se va”</t>
+  </si>
+  <si>
+    <t>"Not all that glitters is gold"</t>
+  </si>
+  <si>
+    <t>“No es oro todo lo que reluce”</t>
+  </si>
+  <si>
+    <t>Don't be boring, try to give routine activities some fun.</t>
+  </si>
+  <si>
+    <t>No seas aburrido, trata de darle algo de diversión a las actividades rutinarias.</t>
+  </si>
+  <si>
+    <t>Always remember that you will not have another life. Make the most of it</t>
+  </si>
+  <si>
+    <t>Siempre recuerda que no tendrás otra vida. Aprovéchala al máximo</t>
+  </si>
+  <si>
+    <t>Take advantage and enjoy each event that is planted in front of you every day.</t>
+  </si>
+  <si>
+    <t>Aprovecha y disfruta de cada evento que se te planta delante cada día.</t>
+  </si>
+  <si>
+    <t>The outside world is neither bad nor good, it doesn't care if you exist, as cruel as it may sound.</t>
+  </si>
+  <si>
+    <t>El mundo exterior no es malo ni bueno, le da igual si existes, por cruel que pueda sonar.</t>
+  </si>
+  <si>
+    <t>The most important thing you will find in life is love, the rest is vanity. Try not to lose it.</t>
+  </si>
+  <si>
+    <t>Lo más importante que te encontrarás en la vida es el amor, lo demás es vanidad. Trata de no perderlo.</t>
+  </si>
+  <si>
+    <t>You must remember that each person has their own truth and many times it will not coincide with yours.</t>
+  </si>
+  <si>
+    <t>Debes recordar que cada persona tiene su propia verdad y muchas veces no va a coincidir con la tuya.</t>
+  </si>
+  <si>
+    <t>If you want to be understood, try to explain yourself as best you can.</t>
+  </si>
+  <si>
+    <t>Si quieres que te entiendan, trata de explicarte lo mejor que puedas.</t>
+  </si>
+  <si>
+    <t>Try not to argue over nonsense, in the end it is useless.</t>
+  </si>
+  <si>
+    <t>Procura no discutir por tonterías, al final no sirve de nada.</t>
+  </si>
+  <si>
+    <t>If you want something, ask for it. What do you lose by trying?</t>
+  </si>
+  <si>
+    <t>Si quieres algo, pídelo. ¿Qué pierdes por intentarlo?</t>
+  </si>
+  <si>
+    <t>If you don't understand something, don't be ashamed to ask.</t>
+  </si>
+  <si>
+    <t>Si no entiendes algo, que no te de vergüenza preguntar.</t>
+  </si>
+  <si>
+    <t>Think of TODAY, because yesterday is left behind, and tomorrow may never come.</t>
+  </si>
+  <si>
+    <t>Piensa en el HOY, por que el ayer se quedó atrás, y el mañana podría no llegar nunca.</t>
+  </si>
+  <si>
+    <t>Ventas</t>
+  </si>
+  <si>
+    <t>Precio</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>Mensaje</t>
+  </si>
+  <si>
+    <t>Código</t>
+  </si>
   <si>
     <t xml:space="preserve">Tipo </t>
   </si>
   <si>
-    <t>Código</t>
-  </si>
-  <si>
-    <t>Mensaje</t>
-  </si>
-  <si>
-    <t>Message</t>
-  </si>
-  <si>
-    <t>Precio</t>
-  </si>
-  <si>
-    <t>Ventas</t>
-  </si>
-  <si>
-    <t>Si es posible, intenta no escatimar en dinero cuando quieras darte un capricho. Todos nos merecemos un regalo de vez en cuando.</t>
-  </si>
-  <si>
-    <t>Cuando realmente no te guste algo, no dudes en decirlo. Lo peor que puedes hacer es guardártelo.</t>
-  </si>
-  <si>
-    <t>Piensa en el HOY, por que el ayer se quedó atrás, y el mañana podría no llegar nunca.</t>
-  </si>
-  <si>
-    <t>Si no entiendes algo, que no te de vergüenza preguntar.</t>
-  </si>
-  <si>
-    <t>Si quieres ver a alguien, invítalo. La compañía de los seres queridos es fundamental para conseguir una vida feliz.</t>
-  </si>
-  <si>
-    <t>Si quieres algo, pídelo. ¿Qué pierdes por intentarlo?</t>
-  </si>
-  <si>
-    <t>Procura no discutir por tonterías, al final no sirve de nada.</t>
-  </si>
-  <si>
-    <t>Si quieres que te entiendan, trata de explicarte lo mejor que puedas.</t>
-  </si>
-  <si>
-    <t>Si sabes que tienes la culpa por algo que has hecho, reconócelo y no busques justificaciones tontas.</t>
-  </si>
-  <si>
-    <t>Debes recordar que cada persona tiene su propia verdad y muchas veces no va a coincidir con la tuya.</t>
-  </si>
-  <si>
-    <t>Evita relacionarte y comunicarte con los tontos que puedan hacerte daño. Ellos no merecen la pena.</t>
-  </si>
-  <si>
-    <t>Lo más importante que te encontrarás en la vida es el amor, lo demás es vanidad. Trata de no perderlo.</t>
-  </si>
-  <si>
-    <t>Tus problemas están solo en tu cabeza. Muchas veces nos agobiamos demasiado, y hacemos un mundo de un pequeño problema.</t>
-  </si>
-  <si>
-    <t>El mundo exterior no es malo ni bueno, le da igual si existes, por cruel que pueda sonar.</t>
-  </si>
-  <si>
-    <t>Aprovecha y disfruta de cada evento que se te planta delante cada día.</t>
-  </si>
-  <si>
-    <t>Siempre recuerda que no tendrás otra vida. Aprovéchala al máximo</t>
-  </si>
-  <si>
-    <t>No seas aburrido, trata de darle algo de diversión a las actividades rutinarias.</t>
-  </si>
-  <si>
-    <t>“No es oro todo lo que reluce”</t>
-  </si>
-  <si>
-    <t>“Lo que fácil viene, fácil se va”</t>
-  </si>
-  <si>
-    <t>“A rey muerto, rey puesto”</t>
-  </si>
-  <si>
-    <t>“A la tercera va a vencida”</t>
-  </si>
-  <si>
-    <t>“El tiempo lo cura todo”</t>
-  </si>
-  <si>
-    <t>“Cada palo aguante su vela”</t>
-  </si>
-  <si>
-    <t>“A buen pagador, no le duelen prendas”</t>
-  </si>
-  <si>
-    <t>“Escoba nueva barre bien ”</t>
-  </si>
-  <si>
-    <t>“Lo barato sale caro”</t>
-  </si>
-  <si>
-    <t>“Un clavo saca otro clavo”</t>
-  </si>
-  <si>
-    <t>“El que tiene boca, se equivoca”</t>
-  </si>
-  <si>
-    <t>“Obras son amores, y no buenas razones”</t>
-  </si>
-  <si>
-    <t>“Amor con amor se paga”</t>
-  </si>
-  <si>
-    <t>“Hoy por ti, mañana por mí”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“La fe mueve montañas” </t>
-  </si>
-  <si>
-    <t>“A buen entendedor, pocas palabras”</t>
-  </si>
-  <si>
-    <t>“A caballo regalado no se le mira el diente”</t>
-  </si>
-  <si>
-    <t>— ¿Por qué las focas del circo miran siempre hacia arriba?— Porque es donde están los focos.</t>
-  </si>
-  <si>
-    <t>— ¡Estás obsesionado con la comida!— No sé a que te refieres croquetamente.</t>
-  </si>
-  <si>
-    <t>— ¿Por qué estás hablando con esas zapatillas?— Porque pone "converse".</t>
-  </si>
-  <si>
-    <t>— ¿Sabes cómo se queda un mago después de comer?— Magordito</t>
-  </si>
-  <si>
-    <t>— Me da un café con leche corto.— Se me ha roto la máquina, cambio.</t>
-  </si>
-  <si>
-    <t>— Buenos días, me gustaría alquilar "Batman Forever".— No es posible, tiene que devolverla tomorrow.</t>
-  </si>
-  <si>
-    <t>— ¡Camarero! Este filete tiene muchos nervios.— Normal, es la primera vez que se lo comen.</t>
-  </si>
-  <si>
-    <t>— ¿Qué le dice un techo a otro?— Techo de menos.</t>
-  </si>
-  <si>
-    <t>— Hola, ¿está Agustín?— No, estoy incomodín.</t>
-  </si>
-  <si>
-    <t>— ¿Cuál es la fruta más divertida?— La naranja ja ja ja ja</t>
-  </si>
-  <si>
-    <t>— ¿Dónde cuelga Superman su supercapa?— En superchero</t>
-  </si>
-  <si>
-    <t>— ¿Qué le dice una iguana a su hermana gemela?— Somos iguanitas</t>
-  </si>
-  <si>
-    <t>— Abuelo, ¿por qué estás delante del ordenador con los ojos cerrados?— Es que Windows me ha dicho que cierre las pestañas.</t>
-  </si>
-  <si>
-    <t>— ¿Qué es un pez en un cine?— Un mero espectador</t>
-  </si>
-  <si>
-    <t>— ¿Para que van una caja al gimnasio?— Para hacerse caja fuerte.</t>
-  </si>
-  <si>
-    <t>— ¿Por qué se suicidó el libro de matemáticas?— Porque tenía muchos problemas.</t>
-  </si>
-  <si>
-    <t>If possible, try not to skimp on money when you want to treat yourself. We all deserve a gift from time to time.</t>
-  </si>
-  <si>
-    <t>When you really don't like something, feel free to say so. The worst thing you can do is keep it to yourself.</t>
-  </si>
-  <si>
-    <t>Think of TODAY, because yesterday is left behind, and tomorrow may never come.</t>
-  </si>
-  <si>
-    <t>If you don't understand something, don't be ashamed to ask.</t>
-  </si>
-  <si>
-    <t>If you want to see someone, invite them. The company of loved ones is essential to achieve a happy life.</t>
-  </si>
-  <si>
-    <t>If you want something, ask for it. What do you lose by trying?</t>
-  </si>
-  <si>
-    <t>Try not to argue over nonsense, in the end it is useless.</t>
-  </si>
-  <si>
-    <t>If you want to be understood, try to explain yourself as best you can.</t>
-  </si>
-  <si>
-    <t>If you know that you are to blame for something you have done, acknowledge it and do not look for silly justifications.</t>
-  </si>
-  <si>
-    <t>You must remember that each person has their own truth and many times it will not coincide with yours.</t>
-  </si>
-  <si>
-    <t>Avoid socializing and communicating with fools who might hurt you. They are not worth it.</t>
-  </si>
-  <si>
-    <t>The most important thing you will find in life is love, the rest is vanity. Try not to lose it.</t>
-  </si>
-  <si>
-    <t>Your problems are only in your head. Many times we get too overwhelmed, and we make a world out of a little trouble.</t>
-  </si>
-  <si>
-    <t>The outside world is neither bad nor good, it doesn't care if you exist, as cruel as it may sound.</t>
-  </si>
-  <si>
-    <t>Take advantage and enjoy each event that is planted in front of you every day.</t>
-  </si>
-  <si>
-    <t>Always remember that you will not have another life. Make the most of it</t>
-  </si>
-  <si>
-    <t>Don't be boring, try to give routine activities some fun.</t>
-  </si>
-  <si>
-    <t>"Not all that glitters is gold"</t>
+    <t>"Today for you tomorrow for me"</t>
+  </si>
+  <si>
+    <t>"Faith moves mountains"</t>
+  </si>
+  <si>
+    <t>Si es posible, intenta no escatimar en dinero cuando quieras darte un capricho.</t>
+  </si>
+  <si>
+    <t>If possible, try not to skimp on money when you want to treat yourself.</t>
+  </si>
+  <si>
+    <t>Cuando realmente no te guste algo, no dudes en decirlo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When you really don't like something, feel free to say so. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si quieres ver a alguien, invítalo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you want to see someone, invite them. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evita relacionarte y comunicarte con los tontos que puedan hacerte daño. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avoid socializing and communicating with fools who might hurt you. </t>
+  </si>
+  <si>
+    <t>Tus problemas están solo en tu cabeza.</t>
+  </si>
+  <si>
+    <t>Your problems are only in your head.</t>
+  </si>
+  <si>
+    <t>Si sabes que tienes la culpa por algo que has hecho, reconócelo.</t>
+  </si>
+  <si>
+    <t>If you know that you are to blame for something you have done, acknowledge it.</t>
+  </si>
+  <si>
+    <t>"To a good listener few words"</t>
+  </si>
+  <si>
+    <t>"To a gift horse you do not look at the tooth"</t>
+  </si>
+  <si>
+    <t>What did one wall say to the other wall?/I'll meet you at the corner!</t>
+  </si>
+  <si>
+    <t>¿Qué le dijo una pared a otra pared?/¡Te veo en la esquina!</t>
+  </si>
+  <si>
+    <t>Did your father help your with your homework?/No, he did it all by himself.</t>
+  </si>
+  <si>
+    <t>¿Te ayudó tu padre con la tarea?/No, él lo hizo todo solo.</t>
+  </si>
+  <si>
+    <t>Would you like your coffee black?/What other colours do you have?</t>
+  </si>
+  <si>
+    <t>¿Le gustaría café negro?/¿Qué otros colores tiene?</t>
+  </si>
+  <si>
+    <t>Charlie, you know you can't sleep in my class./Yes, I know. But maybe if you were just a little quieter, I could!</t>
+  </si>
+  <si>
+    <t>Charlie, sabes que no puedes dormir en mi clase/Lo sé, pero si hicieras un poco más de silencio podría.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What do you give 900-pound gorilla for his birthday?/ I don't know, but you'd better hope he likes it! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Qué le darías a un gorila de 900 libras por su cumpleaños?/No lo sé pero espero que le guste. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doctor, sometimes I feel like I'm invisible./Who said that? </t>
+  </si>
+  <si>
+    <t>Doctor, me siento invisible/¿Quién dijo eso?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waiter! Have you noticed this chicken has one leg longer than the other one?/Do you want to eat it or have a dance with it? </t>
+  </si>
+  <si>
+    <t>¡Mesero!¿Se dio cuenta que este pollo tiene una pierna más larga que la otra?/¿Quieres comértelo o vas a bailar con él?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the shortest month?/May. It only has three letters! </t>
+  </si>
+  <si>
+    <t>¿Cuál es el mes más corto?- Mayo, porque tiene solo 4 letras.</t>
+  </si>
+  <si>
+    <t>What time is it when an elephant sits on the fence?/ Time to fix the fence!</t>
+  </si>
+  <si>
+    <t>¿Qué hora es cuando el elefante se sienta en la cerca?/¡Hora de arreglar la cerca!</t>
+  </si>
+  <si>
+    <t>My house is so, so, so small that when the sun comes into my house, I have to leave.</t>
+  </si>
+  <si>
+    <t>Mi casa es tan pero tan pequeña que cuando entra el sol, tengo que salir.</t>
+  </si>
+  <si>
+    <t>What's the definition of mixed emotions?/Seeing your mother-in-law driving your new car off the edge of a cliff.</t>
+  </si>
+  <si>
+    <t>¿Cuál es la definición de emociones encontradas? / Ver a tu suegra conduciendo tu nuevo auto por el borde de un acantilado.</t>
+  </si>
+  <si>
+    <t>What happens in the African jungle from 6 a.m. to 8 a.m. everyday, even on Sundays?/Two hours.</t>
+  </si>
+  <si>
+    <t>¿Qué sucede en la selva africana de 6 a.m. a 8 a.m. todos los días, incluso los domingos? / Dos horas.</t>
+  </si>
+  <si>
+    <t>¿Por qué los franceses comen caracoles?/Porque no lo les gusta la comida rápida</t>
+  </si>
+  <si>
+    <t>Why do the French eat snails? / Because they don't like fast food</t>
+  </si>
+  <si>
+    <t>How is pizza in 8 bits?/Pizzelated</t>
+  </si>
+  <si>
+    <t>¿Cómo es la pizza en 8 bits?/Pizzelada</t>
+  </si>
+  <si>
+    <t>¿En qué se diferencian un pila y una suegra?/En que la pila tiene un lado positivo.</t>
+  </si>
+  <si>
+    <t>How are a pile and a mother-in-law different? / In that the pile has a positive side.</t>
+  </si>
+  <si>
+    <t>¿Las arañas saben usar internet?/¿Bromeas?, les encanta navegar por la red.</t>
+  </si>
+  <si>
+    <t>Do spiders know how to use the internet? / Are you kidding? They love to surf the net.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -265,7 +379,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -284,14 +398,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -574,38 +723,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="4" width="115.33203125" customWidth="1"/>
+    <col min="3" max="4" width="84.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15" thickBot="1">
+      <c r="A1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -613,10 +762,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E2" s="1">
         <v>5</v>
@@ -625,7 +774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -633,10 +782,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E3" s="1">
         <v>5</v>
@@ -645,7 +794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -653,10 +802,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E4" s="1">
         <v>5</v>
@@ -665,7 +814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -673,10 +822,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E5" s="1">
         <v>5</v>
@@ -685,7 +834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -693,10 +842,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E6" s="1">
         <v>5</v>
@@ -705,7 +854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -713,10 +862,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E7" s="1">
         <v>5</v>
@@ -725,7 +874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -733,10 +882,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="E8" s="1">
         <v>10</v>
@@ -745,7 +894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -753,10 +902,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="E9" s="1">
         <v>10</v>
@@ -765,7 +914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -773,10 +922,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E10" s="1">
         <v>10</v>
@@ -785,7 +934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -793,10 +942,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="E11" s="1">
         <v>10</v>
@@ -805,7 +954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -813,10 +962,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E12" s="1">
         <v>10</v>
@@ -825,7 +974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -833,10 +982,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="E13" s="1">
         <v>10</v>
@@ -845,7 +994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -853,10 +1002,10 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E14" s="1">
         <v>15</v>
@@ -865,7 +1014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -873,10 +1022,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="E15" s="1">
         <v>15</v>
@@ -885,7 +1034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -893,10 +1042,10 @@
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="E16" s="1">
         <v>15</v>
@@ -905,7 +1054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -913,10 +1062,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="E17" s="1">
         <v>15</v>
@@ -925,7 +1074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -933,10 +1082,10 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="E18" s="1">
         <v>15</v>
@@ -945,7 +1094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>2</v>
       </c>
@@ -953,10 +1102,10 @@
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="E19" s="1">
         <v>5</v>
@@ -965,7 +1114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>2</v>
       </c>
@@ -973,9 +1122,11 @@
         <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
       <c r="E20" s="1">
         <v>5</v>
       </c>
@@ -983,7 +1134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>2</v>
       </c>
@@ -993,7 +1144,9 @@
       <c r="C21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="1"/>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
       <c r="E21" s="1">
         <v>5</v>
       </c>
@@ -1001,7 +1154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>2</v>
       </c>
@@ -1009,9 +1162,11 @@
         <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
       <c r="E22" s="1">
         <v>5</v>
       </c>
@@ -1019,7 +1174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>2</v>
       </c>
@@ -1027,9 +1182,11 @@
         <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>20</v>
+      </c>
       <c r="E23" s="1">
         <v>5</v>
       </c>
@@ -1037,7 +1194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>2</v>
       </c>
@@ -1045,9 +1202,11 @@
         <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
       <c r="E24" s="1">
         <v>5</v>
       </c>
@@ -1055,7 +1214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>2</v>
       </c>
@@ -1063,9 +1222,11 @@
         <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
       <c r="E25" s="1">
         <v>10</v>
       </c>
@@ -1073,7 +1234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>2</v>
       </c>
@@ -1081,9 +1242,11 @@
         <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
       <c r="E26" s="1">
         <v>10</v>
       </c>
@@ -1091,7 +1254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>2</v>
       </c>
@@ -1099,9 +1262,11 @@
         <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
       <c r="E27" s="1">
         <v>10</v>
       </c>
@@ -1109,7 +1274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>2</v>
       </c>
@@ -1117,9 +1282,11 @@
         <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
       <c r="E28" s="1">
         <v>10</v>
       </c>
@@ -1127,7 +1294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>2</v>
       </c>
@@ -1135,9 +1302,11 @@
         <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
       <c r="E29" s="1">
         <v>10</v>
       </c>
@@ -1145,7 +1314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>2</v>
       </c>
@@ -1153,9 +1322,11 @@
         <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
       <c r="E30" s="1">
         <v>10</v>
       </c>
@@ -1163,7 +1334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>2</v>
       </c>
@@ -1171,9 +1342,11 @@
         <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>2</v>
+      </c>
       <c r="E31" s="1">
         <v>15</v>
       </c>
@@ -1181,7 +1354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>2</v>
       </c>
@@ -1189,9 +1362,11 @@
         <v>31</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D32" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>58</v>
+      </c>
       <c r="E32" s="1">
         <v>15</v>
       </c>
@@ -1199,7 +1374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>2</v>
       </c>
@@ -1207,9 +1382,11 @@
         <v>32</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="D33" t="s">
+        <v>59</v>
+      </c>
       <c r="E33" s="1">
         <v>15</v>
       </c>
@@ -1217,7 +1394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>2</v>
       </c>
@@ -1225,9 +1402,11 @@
         <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D34" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>72</v>
+      </c>
       <c r="E34" s="1">
         <v>15</v>
       </c>
@@ -1235,7 +1414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>2</v>
       </c>
@@ -1243,9 +1422,11 @@
         <v>34</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D35" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>73</v>
+      </c>
       <c r="E35" s="1">
         <v>15</v>
       </c>
@@ -1253,7 +1434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>3</v>
       </c>
@@ -1261,9 +1442,11 @@
         <v>35</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D36" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="D36" t="s">
+        <v>74</v>
+      </c>
       <c r="E36" s="1">
         <v>5</v>
       </c>
@@ -1271,7 +1454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
         <v>3</v>
       </c>
@@ -1279,9 +1462,11 @@
         <v>36</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D37" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="E37" s="1">
         <v>5</v>
       </c>
@@ -1289,7 +1474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6">
       <c r="A38" s="1">
         <v>3</v>
       </c>
@@ -1297,9 +1482,11 @@
         <v>37</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D38" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="D38" t="s">
+        <v>78</v>
+      </c>
       <c r="E38" s="1">
         <v>5</v>
       </c>
@@ -1307,7 +1494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6">
       <c r="A39" s="1">
         <v>3</v>
       </c>
@@ -1315,9 +1502,11 @@
         <v>38</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D39" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="D39" t="s">
+        <v>80</v>
+      </c>
       <c r="E39" s="1">
         <v>5</v>
       </c>
@@ -1325,7 +1514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6">
       <c r="A40" s="1">
         <v>3</v>
       </c>
@@ -1333,9 +1522,11 @@
         <v>39</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D40" s="1"/>
+        <v>83</v>
+      </c>
+      <c r="D40" t="s">
+        <v>82</v>
+      </c>
       <c r="E40" s="1">
         <v>5</v>
       </c>
@@ -1343,7 +1534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6">
       <c r="A41" s="1">
         <v>3</v>
       </c>
@@ -1351,9 +1542,11 @@
         <v>40</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D41" s="1"/>
+        <v>85</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="E41" s="1">
         <v>5</v>
       </c>
@@ -1361,7 +1554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6">
       <c r="A42" s="1">
         <v>3</v>
       </c>
@@ -1369,9 +1562,11 @@
         <v>41</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D42" s="1"/>
+        <v>87</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="E42" s="1">
         <v>10</v>
       </c>
@@ -1379,7 +1574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6">
       <c r="A43" s="1">
         <v>3</v>
       </c>
@@ -1387,9 +1582,11 @@
         <v>42</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D43" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="E43" s="1">
         <v>10</v>
       </c>
@@ -1397,7 +1594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6">
       <c r="A44" s="1">
         <v>3</v>
       </c>
@@ -1405,9 +1602,11 @@
         <v>43</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D44" s="1"/>
+        <v>91</v>
+      </c>
+      <c r="D44" t="s">
+        <v>90</v>
+      </c>
       <c r="E44" s="1">
         <v>10</v>
       </c>
@@ -1415,7 +1614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6">
       <c r="A45" s="1">
         <v>3</v>
       </c>
@@ -1423,9 +1622,11 @@
         <v>44</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D45" s="1"/>
+        <v>93</v>
+      </c>
+      <c r="D45" t="s">
+        <v>92</v>
+      </c>
       <c r="E45" s="1">
         <v>10</v>
       </c>
@@ -1433,17 +1634,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6">
       <c r="A46" s="1">
         <v>3</v>
       </c>
       <c r="B46" s="1">
         <v>45</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D46" s="1"/>
+      <c r="C46" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="E46" s="1">
         <v>10</v>
       </c>
@@ -1451,17 +1654,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6">
       <c r="A47" s="1">
         <v>3</v>
       </c>
       <c r="B47" s="1">
         <v>46</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D47" s="1"/>
+      <c r="C47" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="E47" s="1">
         <v>10</v>
       </c>
@@ -1469,7 +1674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6">
       <c r="A48" s="1">
         <v>3</v>
       </c>
@@ -1477,9 +1682,11 @@
         <v>47</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D48" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="E48" s="1">
         <v>15</v>
       </c>
@@ -1487,7 +1694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6">
       <c r="A49" s="1">
         <v>3</v>
       </c>
@@ -1495,9 +1702,11 @@
         <v>48</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D49" s="1"/>
+        <v>101</v>
+      </c>
+      <c r="D49" t="s">
+        <v>100</v>
+      </c>
       <c r="E49" s="1">
         <v>15</v>
       </c>
@@ -1505,7 +1714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6">
       <c r="A50" s="1">
         <v>3</v>
       </c>
@@ -1513,9 +1722,11 @@
         <v>49</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D50" s="1"/>
+        <v>102</v>
+      </c>
+      <c r="D50" t="s">
+        <v>103</v>
+      </c>
       <c r="E50" s="1">
         <v>15</v>
       </c>
@@ -1523,7 +1734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6">
       <c r="A51" s="1">
         <v>3</v>
       </c>
@@ -1531,22 +1742,15 @@
         <v>50</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D51" s="1"/>
+        <v>104</v>
+      </c>
+      <c r="D51" t="s">
+        <v>105</v>
+      </c>
       <c r="E51" s="1">
         <v>15</v>
       </c>
       <c r="F51" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D52" s="1"/>
-      <c r="E52" s="1">
-        <v>15</v>
-      </c>
-      <c r="F52" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Mensajes.xlsx
+++ b/Mensajes.xlsx
@@ -443,7 +443,7 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="93.21875" customWidth="1" style="2" min="3" max="4"/>
   </cols>
@@ -525,7 +525,7 @@
         <v>5</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -549,7 +549,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -573,7 +573,7 @@
         <v>5</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -597,7 +597,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -909,7 +909,7 @@
         <v>5</v>
       </c>
       <c r="F19" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1005,7 +1005,7 @@
         <v>5</v>
       </c>
       <c r="F23" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1101,7 +1101,7 @@
         <v>10</v>
       </c>
       <c r="F27" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1197,7 +1197,7 @@
         <v>15</v>
       </c>
       <c r="F31" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">

--- a/Mensajes.xlsx
+++ b/Mensajes.xlsx
@@ -443,7 +443,7 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="93.21875" customWidth="1" style="2" min="3" max="4"/>
   </cols>
@@ -549,7 +549,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -621,7 +621,7 @@
         <v>5</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">

--- a/Mensajes.xlsx
+++ b/Mensajes.xlsx
@@ -443,7 +443,7 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col width="93.21875" customWidth="1" style="2" min="3" max="4"/>
   </cols>
@@ -573,7 +573,7 @@
         <v>5</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">

--- a/Mensajes.xlsx
+++ b/Mensajes.xlsx
@@ -501,7 +501,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -597,7 +597,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -621,7 +621,7 @@
         <v>5</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">

--- a/Mensajes.xlsx
+++ b/Mensajes.xlsx
@@ -443,7 +443,7 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="93.21875" customWidth="1" style="2" min="3" max="4"/>
   </cols>
@@ -501,7 +501,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -573,7 +573,7 @@
         <v>5</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -597,7 +597,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -621,7 +621,7 @@
         <v>5</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">

--- a/Mensajes.xlsx
+++ b/Mensajes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2352" yWindow="1188" windowWidth="17280" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
@@ -439,8 +439,8 @@
   </sheetPr>
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="D40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" outlineLevelCol="0"/>
@@ -501,7 +501,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -549,7 +549,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -573,7 +573,7 @@
         <v>5</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -597,7 +597,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -621,7 +621,7 @@
         <v>5</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1029,7 +1029,7 @@
         <v>5</v>
       </c>
       <c r="F24" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1413,7 +1413,7 @@
         <v>5</v>
       </c>
       <c r="F40" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">

--- a/Mensajes.xlsx
+++ b/Mensajes.xlsx
@@ -501,7 +501,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -573,7 +573,7 @@
         <v>5</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -621,7 +621,7 @@
         <v>5</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1173,7 +1173,7 @@
         <v>10</v>
       </c>
       <c r="F30" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">

--- a/Mensajes.xlsx
+++ b/Mensajes.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
@@ -501,7 +501,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -549,7 +549,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -573,7 +573,7 @@
         <v>5</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -597,7 +597,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -621,7 +621,7 @@
         <v>5</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -765,7 +765,7 @@
         <v>10</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1173,7 +1173,7 @@
         <v>10</v>
       </c>
       <c r="F30" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1680,6 +1680,7 @@
         <v>0</v>
       </c>
     </row>
+    <row r="52"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/Mensajes.xlsx
+++ b/Mensajes.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
@@ -765,7 +765,7 @@
         <v>10</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1680,7 +1680,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/Mensajes.xlsx
+++ b/Mensajes.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
@@ -573,7 +573,7 @@
         <v>5</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -621,7 +621,7 @@
         <v>5</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1680,7 +1680,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/Mensajes.xlsx
+++ b/Mensajes.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
@@ -573,7 +573,7 @@
         <v>5</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -621,7 +621,7 @@
         <v>5</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -765,7 +765,7 @@
         <v>10</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1680,6 +1680,7 @@
         <v>0</v>
       </c>
     </row>
+    <row r="52"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
